--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/BDE/20/seed1/result_data_KNN.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/BDE/20/seed1/result_data_KNN.xlsx
@@ -499,7 +499,7 @@
         <v>-19.84</v>
       </c>
       <c r="B4" t="n">
-        <v>8.894</v>
+        <v>7.741999999999999</v>
       </c>
       <c r="C4" t="n">
         <v>-13.95</v>
@@ -533,7 +533,7 @@
         <v>-21.08</v>
       </c>
       <c r="B6" t="n">
-        <v>7.714</v>
+        <v>6.212</v>
       </c>
       <c r="C6" t="n">
         <v>-15.25</v>
@@ -550,13 +550,13 @@
         <v>-22.82</v>
       </c>
       <c r="B7" t="n">
-        <v>5.752000000000001</v>
+        <v>6.031999999999999</v>
       </c>
       <c r="C7" t="n">
         <v>-11.52</v>
       </c>
       <c r="D7" t="n">
-        <v>-7.566</v>
+        <v>-7.835000000000001</v>
       </c>
       <c r="E7" t="n">
         <v>17.28</v>
@@ -567,7 +567,7 @@
         <v>-21.27</v>
       </c>
       <c r="B8" t="n">
-        <v>6.469999999999999</v>
+        <v>6</v>
       </c>
       <c r="C8" t="n">
         <v>-14.64</v>
@@ -624,7 +624,7 @@
         <v>-10.8</v>
       </c>
       <c r="D11" t="n">
-        <v>-7.657999999999999</v>
+        <v>-7.38</v>
       </c>
       <c r="E11" t="n">
         <v>17.04</v>
@@ -641,10 +641,10 @@
         <v>-9.76</v>
       </c>
       <c r="D12" t="n">
-        <v>-6.928</v>
+        <v>-7.071000000000001</v>
       </c>
       <c r="E12" t="n">
-        <v>18.586</v>
+        <v>17.967</v>
       </c>
     </row>
     <row r="13">
@@ -661,7 +661,7 @@
         <v>-8.359999999999999</v>
       </c>
       <c r="E13" t="n">
-        <v>16.344</v>
+        <v>16.468</v>
       </c>
     </row>
     <row r="14">
@@ -678,7 +678,7 @@
         <v>-7.43</v>
       </c>
       <c r="E14" t="n">
-        <v>17.34</v>
+        <v>17.176</v>
       </c>
     </row>
     <row r="15">
@@ -692,7 +692,7 @@
         <v>-13.12</v>
       </c>
       <c r="D15" t="n">
-        <v>-8.337999999999999</v>
+        <v>-8.411</v>
       </c>
       <c r="E15" t="n">
         <v>16.67</v>
@@ -703,7 +703,7 @@
         <v>-22.39</v>
       </c>
       <c r="B16" t="n">
-        <v>4.482</v>
+        <v>4.935</v>
       </c>
       <c r="C16" t="n">
         <v>-13.59</v>
@@ -712,7 +712,7 @@
         <v>-9.27</v>
       </c>
       <c r="E16" t="n">
-        <v>16.706</v>
+        <v>16.409</v>
       </c>
     </row>
     <row r="17">
@@ -763,7 +763,7 @@
         <v>-7.9</v>
       </c>
       <c r="E19" t="n">
-        <v>16.202</v>
+        <v>16.54</v>
       </c>
     </row>
     <row r="20">
@@ -771,16 +771,16 @@
         <v>-19.14</v>
       </c>
       <c r="B20" t="n">
-        <v>9.260000000000002</v>
+        <v>8.204000000000001</v>
       </c>
       <c r="C20" t="n">
         <v>-14.88</v>
       </c>
       <c r="D20" t="n">
-        <v>-8.23</v>
+        <v>-7.957000000000001</v>
       </c>
       <c r="E20" t="n">
-        <v>16.662</v>
+        <v>16.475</v>
       </c>
     </row>
     <row r="21">
@@ -788,13 +788,13 @@
         <v>-19.55</v>
       </c>
       <c r="B21" t="n">
-        <v>9.564</v>
+        <v>9.236000000000001</v>
       </c>
       <c r="C21" t="n">
         <v>-13.13</v>
       </c>
       <c r="D21" t="n">
-        <v>-8.088000000000001</v>
+        <v>-7.98</v>
       </c>
       <c r="E21" t="n">
         <v>16.94</v>
@@ -811,10 +811,10 @@
         <v>-15.07</v>
       </c>
       <c r="D22" t="n">
-        <v>-7.866</v>
+        <v>-7.720000000000001</v>
       </c>
       <c r="E22" t="n">
-        <v>16.544</v>
+        <v>16.602</v>
       </c>
     </row>
     <row r="23">
@@ -828,7 +828,7 @@
         <v>-12.89</v>
       </c>
       <c r="D23" t="n">
-        <v>-7.956</v>
+        <v>-7.869999999999999</v>
       </c>
       <c r="E23" t="n">
         <v>17.37</v>
@@ -907,7 +907,7 @@
         <v>-21.74</v>
       </c>
       <c r="B28" t="n">
-        <v>5.89</v>
+        <v>6.171</v>
       </c>
       <c r="C28" t="n">
         <v>-11.8</v>
@@ -924,13 +924,13 @@
         <v>-21.48</v>
       </c>
       <c r="B29" t="n">
-        <v>5.561999999999999</v>
+        <v>5.101</v>
       </c>
       <c r="C29" t="n">
         <v>-11.02</v>
       </c>
       <c r="D29" t="n">
-        <v>-6.656000000000001</v>
+        <v>-6.832000000000001</v>
       </c>
       <c r="E29" t="n">
         <v>17.76</v>
@@ -941,7 +941,7 @@
         <v>-21.31</v>
       </c>
       <c r="B30" t="n">
-        <v>6.380000000000001</v>
+        <v>6.021000000000001</v>
       </c>
       <c r="C30" t="n">
         <v>-10.71</v>
@@ -975,7 +975,7 @@
         <v>-20.86</v>
       </c>
       <c r="B32" t="n">
-        <v>5.755999999999999</v>
+        <v>6.645999999999999</v>
       </c>
       <c r="C32" t="n">
         <v>-10.55</v>
@@ -1015,7 +1015,7 @@
         <v>-11.49</v>
       </c>
       <c r="D34" t="n">
-        <v>-8.068</v>
+        <v>-8.066999999999998</v>
       </c>
       <c r="E34" t="n">
         <v>16.39</v>
@@ -1052,7 +1052,7 @@
         <v>-9.050000000000001</v>
       </c>
       <c r="E36" t="n">
-        <v>16.874</v>
+        <v>16.527</v>
       </c>
     </row>
     <row r="37">
@@ -1111,7 +1111,7 @@
         <v>-19.21</v>
       </c>
       <c r="B40" t="n">
-        <v>9.824</v>
+        <v>9.179</v>
       </c>
       <c r="C40" t="n">
         <v>-12.94</v>
@@ -1151,7 +1151,7 @@
         <v>-13.45</v>
       </c>
       <c r="D42" t="n">
-        <v>-8.456000000000001</v>
+        <v>-8.18</v>
       </c>
       <c r="E42" t="n">
         <v>16.31</v>
@@ -1168,10 +1168,10 @@
         <v>-11.77</v>
       </c>
       <c r="D43" t="n">
-        <v>-8.065999999999999</v>
+        <v>-8.241</v>
       </c>
       <c r="E43" t="n">
-        <v>17.292</v>
+        <v>17.019</v>
       </c>
     </row>
     <row r="44">
@@ -1185,7 +1185,7 @@
         <v>-10.47</v>
       </c>
       <c r="D44" t="n">
-        <v>-8.17</v>
+        <v>-8.081</v>
       </c>
       <c r="E44" t="n">
         <v>16.52</v>
@@ -1202,7 +1202,7 @@
         <v>-11</v>
       </c>
       <c r="D45" t="n">
-        <v>-7.706</v>
+        <v>-7.525000000000001</v>
       </c>
       <c r="E45" t="n">
         <v>16.85</v>
@@ -1213,16 +1213,16 @@
         <v>-22.54</v>
       </c>
       <c r="B46" t="n">
-        <v>6.116000000000001</v>
+        <v>5.801</v>
       </c>
       <c r="C46" t="n">
         <v>-11.47</v>
       </c>
       <c r="D46" t="n">
-        <v>-8.180000000000001</v>
+        <v>-7.920999999999998</v>
       </c>
       <c r="E46" t="n">
-        <v>17.446</v>
+        <v>16.797</v>
       </c>
     </row>
     <row r="47">
@@ -1287,10 +1287,10 @@
         <v>-14.51</v>
       </c>
       <c r="D50" t="n">
-        <v>-8.09</v>
+        <v>-8.230999999999998</v>
       </c>
       <c r="E50" t="n">
-        <v>16.86</v>
+        <v>16.605</v>
       </c>
     </row>
     <row r="51">
@@ -1298,13 +1298,13 @@
         <v>-22</v>
       </c>
       <c r="B51" t="n">
-        <v>4.362</v>
+        <v>4.862</v>
       </c>
       <c r="C51" t="n">
         <v>-13.17</v>
       </c>
       <c r="D51" t="n">
-        <v>-8.772</v>
+        <v>-8.337</v>
       </c>
       <c r="E51" t="n">
         <v>17.2</v>
@@ -1315,7 +1315,7 @@
         <v>-21.69</v>
       </c>
       <c r="B52" t="n">
-        <v>5.606</v>
+        <v>6.042</v>
       </c>
       <c r="C52" t="n">
         <v>-14.35</v>
@@ -1400,13 +1400,13 @@
         <v>-22.67</v>
       </c>
       <c r="B57" t="n">
-        <v>5.279999999999999</v>
+        <v>5.022999999999999</v>
       </c>
       <c r="C57" t="n">
         <v>-15.01</v>
       </c>
       <c r="D57" t="n">
-        <v>-8.186</v>
+        <v>-7.924000000000001</v>
       </c>
       <c r="E57" t="n">
         <v>16.41</v>
@@ -1434,7 +1434,7 @@
         <v>-21.94</v>
       </c>
       <c r="B59" t="n">
-        <v>4.657999999999999</v>
+        <v>5.231999999999999</v>
       </c>
       <c r="C59" t="n">
         <v>-14.55</v>
@@ -1485,7 +1485,7 @@
         <v>-22.78</v>
       </c>
       <c r="B62" t="n">
-        <v>5.802</v>
+        <v>5.229</v>
       </c>
       <c r="C62" t="n">
         <v>-14.53</v>
@@ -1542,7 +1542,7 @@
         <v>-11.86</v>
       </c>
       <c r="D65" t="n">
-        <v>-7.828</v>
+        <v>-7.784999999999999</v>
       </c>
       <c r="E65" t="n">
         <v>17.18</v>
@@ -1553,13 +1553,13 @@
         <v>-21.61</v>
       </c>
       <c r="B66" t="n">
-        <v>5.14</v>
+        <v>5.819</v>
       </c>
       <c r="C66" t="n">
         <v>-10.51</v>
       </c>
       <c r="D66" t="n">
-        <v>-7.444</v>
+        <v>-7.347</v>
       </c>
       <c r="E66" t="n">
         <v>17.07</v>
@@ -1576,7 +1576,7 @@
         <v>-10.67</v>
       </c>
       <c r="D67" t="n">
-        <v>-6.895999999999999</v>
+        <v>-6.83</v>
       </c>
       <c r="E67" t="n">
         <v>18.14</v>
@@ -1672,7 +1672,7 @@
         <v>-20.59</v>
       </c>
       <c r="B73" t="n">
-        <v>8.17</v>
+        <v>6.703</v>
       </c>
       <c r="C73" t="n">
         <v>-15.02</v>
@@ -1689,7 +1689,7 @@
         <v>-19.27</v>
       </c>
       <c r="B74" t="n">
-        <v>9.336</v>
+        <v>8.943999999999999</v>
       </c>
       <c r="C74" t="n">
         <v>-12.97</v>
@@ -1732,7 +1732,7 @@
         <v>-7.88</v>
       </c>
       <c r="E76" t="n">
-        <v>16.442</v>
+        <v>16.602</v>
       </c>
     </row>
     <row r="77">
@@ -1740,7 +1740,7 @@
         <v>-19.89</v>
       </c>
       <c r="B77" t="n">
-        <v>5.814</v>
+        <v>5.677</v>
       </c>
       <c r="C77" t="n">
         <v>-9.57</v>
@@ -1780,7 +1780,7 @@
         <v>-9.779999999999999</v>
       </c>
       <c r="D79" t="n">
-        <v>-8.391999999999999</v>
+        <v>-7.923</v>
       </c>
       <c r="E79" t="n">
         <v>18.4</v>
@@ -1865,7 +1865,7 @@
         <v>-12.28</v>
       </c>
       <c r="D84" t="n">
-        <v>-8.116000000000001</v>
+        <v>-8.300000000000001</v>
       </c>
       <c r="E84" t="n">
         <v>16.54</v>
@@ -1916,7 +1916,7 @@
         <v>-15.19</v>
       </c>
       <c r="D87" t="n">
-        <v>-8.710000000000001</v>
+        <v>-8.096</v>
       </c>
       <c r="E87" t="n">
         <v>16.53</v>
@@ -1995,13 +1995,13 @@
         <v>-21.6</v>
       </c>
       <c r="B92" t="n">
-        <v>5.772</v>
+        <v>5.513</v>
       </c>
       <c r="C92" t="n">
         <v>-9.49</v>
       </c>
       <c r="D92" t="n">
-        <v>-6.706</v>
+        <v>-6.528</v>
       </c>
       <c r="E92" t="n">
         <v>19.64</v>
@@ -2055,7 +2055,7 @@
         <v>-6.44</v>
       </c>
       <c r="E95" t="n">
-        <v>17.512</v>
+        <v>17.483</v>
       </c>
     </row>
     <row r="96">
@@ -2086,10 +2086,10 @@
         <v>-13.93</v>
       </c>
       <c r="D97" t="n">
-        <v>-7.874</v>
+        <v>-8.104000000000001</v>
       </c>
       <c r="E97" t="n">
-        <v>16.312</v>
+        <v>16.779</v>
       </c>
     </row>
     <row r="98">
@@ -2123,7 +2123,7 @@
         <v>-7.98</v>
       </c>
       <c r="E99" t="n">
-        <v>16.442</v>
+        <v>16.429</v>
       </c>
     </row>
     <row r="100">
@@ -2131,7 +2131,7 @@
         <v>-21.66</v>
       </c>
       <c r="B100" t="n">
-        <v>5.596</v>
+        <v>6.031000000000001</v>
       </c>
       <c r="C100" t="n">
         <v>-14.32</v>
